--- a/docs/ModelingWorkbench_FeatureConfiguration.xlsx
+++ b/docs/ModelingWorkbench_FeatureConfiguration.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Judith Michael\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\github\gemoc\ql-gemoc-lwb2025\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3358ED40-FEE8-4E3E-9FED-070D3D5343D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9A5195-09D3-4D70-A803-52D7B0A0B10F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9765" yWindow="1305" windowWidth="16845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="82">
   <si>
     <t>Feature</t>
   </si>
   <si>
-    <t>&lt;Language workbench name&gt;</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -268,6 +265,12 @@
   </si>
   <si>
     <t>│   │   │   │   └── Specialization</t>
+  </si>
+  <si>
+    <t>GEMOC Studio</t>
+  </si>
+  <si>
+    <t>Not the main usecase of the GEMOC Studio, but the language designer may create a compiler instead of an Interpreter</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -435,7 +438,7 @@
   <autoFilter ref="A1:C73" xr:uid="{83EE3E99-DC55-4AA5-9373-CE7CD4B397EB}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{7079AA7E-1D06-47FE-BBEE-8677B9F81300}" name="Feature" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{2525B41F-5756-4483-BC59-2CE0C7805AB6}" name="&lt;Language workbench name&gt;"/>
+    <tableColumn id="2" xr3:uid="{2525B41F-5756-4483-BC59-2CE0C7805AB6}" name="GEMOC Studio"/>
     <tableColumn id="3" xr3:uid="{2B497C5B-379C-4E34-A53A-0CC17C1E85C7}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -707,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,624 +728,732 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="E7" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="E9" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="E10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="E16" s="4"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B63" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B64" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B66" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B67" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B68" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B71" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B72" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">

--- a/docs/ModelingWorkbench_FeatureConfiguration.xlsx
+++ b/docs/ModelingWorkbench_FeatureConfiguration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\github\gemoc\ql-gemoc-lwb2025\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9A5195-09D3-4D70-A803-52D7B0A0B10F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED83739-0BFD-4D3E-A318-45BCEBE57731}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9765" yWindow="1305" windowWidth="16845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="83">
   <si>
     <t>Feature</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>Not the main usecase of the GEMOC Studio, but the language designer may create a compiler instead of an Interpreter</t>
+  </si>
+  <si>
+    <t>depend on how the tree editor is considered</t>
   </si>
 </sst>
 </file>
@@ -711,7 +714,7 @@
   <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,9 +1008,11 @@
         <v>12</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">

--- a/docs/ModelingWorkbench_FeatureConfiguration.xlsx
+++ b/docs/ModelingWorkbench_FeatureConfiguration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\github\gemoc\ql-gemoc-lwb2025\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED83739-0BFD-4D3E-A318-45BCEBE57731}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1063AF3A-6F5A-49AC-9F54-6FEFBA9FBD50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9765" yWindow="1305" windowWidth="16845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -713,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
